--- a/Projet/Partie1/A5.xlsx
+++ b/Projet/Partie1/A5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEEB8BC-D185-4953-9B9E-CBBEF5542544}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5305209A-B14E-4415-83EC-23333B69AA52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>t</t>
   </si>
@@ -514,7 +514,7 @@
   <dimension ref="A1:CI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
